--- a/Documents/TableMapping.xlsx
+++ b/Documents/TableMapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/ishit_nandy_accenture_com/Documents/Desktop/BrainBuster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/ishit_nandy_accenture_com/Documents/Desktop/BrainBuster/BrainBuster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F25DC773A252ABDACC1048F9391C77EA5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC1048F9391C77EA5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D077C381-2EE2-4C85-8BF5-328B468922F8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>createdby</t>
+  </si>
+  <si>
+    <t>createddate</t>
+  </si>
+  <si>
+    <t>updatedby</t>
+  </si>
+  <si>
+    <t>updateddate</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>question_tbl</t>
+  </si>
+  <si>
+    <t>answer_tbl</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>iscorrect</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +118,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +424,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/TableMapping.xlsx
+++ b/Documents/TableMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/ishit_nandy_accenture_com/Documents/Desktop/BrainBuster/BrainBuster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC1048F9391C77EA5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D077C381-2EE2-4C85-8BF5-328B468922F8}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048F9391C77EA5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4740DF53-A7CD-4FDD-83E5-AEA96B25B967}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>answer_tbl</t>
   </si>
   <si>
-    <t>option</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>options</t>
   </si>
 </sst>
 </file>
@@ -137,13 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +430,7 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,10 +480,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
@@ -495,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -510,12 +513,12 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
